--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32189.91863184694</v>
+        <v>-34537.95852127652</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157202</v>
+        <v>5861169.424157187</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673357</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>340.4896747491606</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>191.6468735142585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.0044127072328</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>246.3438732753386</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>332.983588159554</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.0887386816668</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>335.44521791588</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>147.4063697019277</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>97.39479945818847</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>7.411050579298081</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I11" t="n">
-        <v>59.00713057159945</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T11" t="n">
         <v>205.8971077829946</v>
@@ -1464,10 +1464,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93315268608707</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I12" t="n">
-        <v>17.02016206544155</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T12" t="n">
         <v>191.6916106499414</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.76041991336659</v>
       </c>
       <c r="I13" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.05094259824699</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S13" t="n">
         <v>193.3033399882067</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>227.570734458868</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159945</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T14" t="n">
         <v>205.8971077829946</v>
@@ -1701,10 +1701,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93315268608707</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02016206544155</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T15" t="n">
         <v>191.6916106499414</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>12.79575040090069</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.05094259824699</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.64932023516758</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.00713057159948</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T17" t="n">
         <v>205.8971077829946</v>
@@ -1941,7 +1941,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T18" t="n">
         <v>191.6916106499414</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.6055942841679</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.612480397015</v>
       </c>
       <c r="T19" t="n">
         <v>220.4154739963984</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H20" t="n">
-        <v>299.2379970292863</v>
+        <v>299.237997029287</v>
       </c>
       <c r="I20" t="n">
-        <v>59.00713057159948</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T20" t="n">
         <v>205.8971077829946</v>
@@ -2178,7 +2178,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I21" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T21" t="n">
         <v>191.6916106499414</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>68.649735044083</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.050942598247</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>220.4154739963984</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>194.2827223178832</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H23" t="n">
-        <v>299.237997029287</v>
+        <v>299.2379970292873</v>
       </c>
       <c r="I23" t="n">
-        <v>59.00713057159948</v>
+        <v>59.00713057160056</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.4903543749023</v>
+        <v>119.490354374903</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8971077829946</v>
+        <v>205.8971077829947</v>
       </c>
       <c r="U23" t="n">
         <v>251.0313412362223</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.2413725340129</v>
+        <v>135.241372534013</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608723</v>
       </c>
       <c r="I24" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544209</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.6367566097489</v>
+        <v>132.6367566097492</v>
       </c>
       <c r="T24" t="n">
-        <v>191.6916106499414</v>
+        <v>191.6916106499415</v>
       </c>
       <c r="U24" t="n">
         <v>225.8030830922118</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3033399882067</v>
+        <v>155.5300491477147</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4154739963984</v>
+        <v>220.4154739963985</v>
       </c>
       <c r="U25" t="n">
-        <v>57.90493376974867</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>194.6450603346041</v>
+        <v>178.1717951428561</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>13.02719212039623</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>37.59617708813261</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3205,7 +3205,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>201.3600324842802</v>
       </c>
       <c r="V34" t="n">
-        <v>132.7035720837721</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9117655188003</v>
+        <v>132.9117655187941</v>
       </c>
       <c r="C37" t="n">
-        <v>120.3266064354908</v>
+        <v>120.3266064354846</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550754</v>
+        <v>100.3858749995917</v>
       </c>
       <c r="E37" t="n">
-        <v>99.51374798343218</v>
+        <v>99.51374798342596</v>
       </c>
       <c r="F37" t="n">
-        <v>98.50083335979426</v>
+        <v>98.50083335978803</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935958912</v>
+        <v>119.105593595885</v>
       </c>
       <c r="H37" t="n">
-        <v>97.83480025118379</v>
+        <v>97.83480025117757</v>
       </c>
       <c r="I37" t="n">
-        <v>49.43220574670111</v>
+        <v>49.4322057466949</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.01193800691034</v>
+        <v>42.01193800690413</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8488106683049</v>
+        <v>142.8488106682987</v>
       </c>
       <c r="T37" t="n">
-        <v>171.3193512574072</v>
+        <v>172.628734613026</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2916235424759</v>
+        <v>239.2916235424697</v>
       </c>
       <c r="V37" t="n">
-        <v>205.217428660691</v>
+        <v>205.2174286606848</v>
       </c>
       <c r="W37" t="n">
-        <v>239.602783673454</v>
+        <v>239.6027836734478</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7894407259002</v>
+        <v>178.7894407258939</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6644386889578</v>
+        <v>171.6644386889516</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124552</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,22 +4135,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.800419524901</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.800419524901</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.800419524901</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>732.0121669266566</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>725.0666661774532</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1504.400259589023</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4513,25 +4513,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832259</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>182.2302673832259</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>182.2302673832259</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>182.2302673832259</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.2302673832259</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1670.695888779115</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1301.733371838703</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>943.4676732319524</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>557.6794206337081</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.295728843236</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>181.3053441250784</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1718.957088916128</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.994571975716</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D8" t="n">
-        <v>1349.994571975716</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="E8" t="n">
-        <v>964.2063193774718</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>356.304280756515</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.957088916128</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1718.957088916128</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782191</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782191</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>334.3070024658833</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>334.3070024658833</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>334.3070024658833</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>334.3070024658833</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782191</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.674311129768</v>
+        <v>2397.674311129767</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189356</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582606</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.657842984363</v>
+        <v>1284.657842984362</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6719381947549</v>
+        <v>873.6719381947541</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1428052453023</v>
+        <v>458.142805245302</v>
       </c>
       <c r="H11" t="n">
-        <v>155.8822021854164</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I11" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J11" t="n">
-        <v>247.1691212138978</v>
+        <v>247.1691212138975</v>
       </c>
       <c r="K11" t="n">
-        <v>644.2201458203073</v>
+        <v>844.9567154386639</v>
       </c>
       <c r="L11" t="n">
-        <v>1438.105143993309</v>
+        <v>1638.841713611665</v>
       </c>
       <c r="M11" t="n">
-        <v>2338.06171519665</v>
+        <v>2538.798284815005</v>
       </c>
       <c r="N11" t="n">
-        <v>3237.948527051875</v>
+        <v>3438.68509667023</v>
       </c>
       <c r="O11" t="n">
-        <v>4042.498487870421</v>
+        <v>4243.235057488776</v>
       </c>
       <c r="P11" t="n">
-        <v>4372.908161510544</v>
+        <v>4583.100002263851</v>
       </c>
       <c r="Q11" t="n">
         <v>4783.051160322424</v>
@@ -5069,22 +5069,22 @@
         <v>4693.254671942665</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394186</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044466</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.647896700896</v>
+        <v>3900.647896700895</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430781</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169701</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.27415119389</v>
+        <v>2784.274151193889</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G12" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H12" t="n">
         <v>113.4711228862671</v>
@@ -5118,25 +5118,25 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J12" t="n">
-        <v>292.1604166971856</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K12" t="n">
-        <v>491.753147485553</v>
+        <v>628.7436071410007</v>
       </c>
       <c r="L12" t="n">
-        <v>806.4527464585124</v>
+        <v>943.4432061139596</v>
       </c>
       <c r="M12" t="n">
-        <v>1193.049203211081</v>
+        <v>1330.039662866528</v>
       </c>
       <c r="N12" t="n">
-        <v>1604.286362735979</v>
+        <v>1741.276822391425</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.188032313728</v>
+        <v>2095.258686457595</v>
       </c>
       <c r="P12" t="n">
-        <v>2265.956619575951</v>
+        <v>2360.027273719818</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.004726840545</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>831.4120937187912</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="C13" t="n">
-        <v>662.4759107908843</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="D13" t="n">
-        <v>662.4759107908843</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="E13" t="n">
-        <v>514.5628172084912</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="F13" t="n">
-        <v>367.6728697105808</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7651809055766</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7651809055766</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I13" t="n">
         <v>96.27903999188167</v>
@@ -5200,49 +5200,49 @@
         <v>127.2068360096031</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238318</v>
+        <v>307.8675422238314</v>
       </c>
       <c r="L13" t="n">
-        <v>594.5774814768326</v>
+        <v>594.5774814768321</v>
       </c>
       <c r="M13" t="n">
-        <v>907.2620358138206</v>
+        <v>907.2620358138197</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q13" t="n">
-        <v>1758.019821576725</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R13" t="n">
-        <v>1658.978465416879</v>
+        <v>1658.978465416878</v>
       </c>
       <c r="S13" t="n">
-        <v>1463.722566438892</v>
+        <v>1463.722566438891</v>
       </c>
       <c r="T13" t="n">
-        <v>1463.722566438892</v>
+        <v>1241.080673513236</v>
       </c>
       <c r="U13" t="n">
-        <v>1463.722566438892</v>
+        <v>951.966632883622</v>
       </c>
       <c r="V13" t="n">
-        <v>1463.722566438892</v>
+        <v>697.2821446777351</v>
       </c>
       <c r="W13" t="n">
-        <v>1233.853137692561</v>
+        <v>407.8649746407745</v>
       </c>
       <c r="X13" t="n">
-        <v>1233.853137692561</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="Y13" t="n">
-        <v>1013.060558549031</v>
+        <v>179.8754237427572</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6719381947546</v>
+        <v>873.6719381947552</v>
       </c>
       <c r="G14" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453024</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J14" t="n">
-        <v>414.5747702342509</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K14" t="n">
-        <v>691.4584060135644</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L14" t="n">
-        <v>1485.343404186566</v>
+        <v>1806.247362632018</v>
       </c>
       <c r="M14" t="n">
-        <v>2385.299975389907</v>
+        <v>2261.185535677454</v>
       </c>
       <c r="N14" t="n">
-        <v>3285.186787245132</v>
+        <v>2854.308550287857</v>
       </c>
       <c r="O14" t="n">
-        <v>4089.736748063678</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P14" t="n">
-        <v>4420.146421703801</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q14" t="n">
-        <v>4717.991904648171</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942666</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394187</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G15" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H15" t="n">
         <v>113.4711228862671</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J15" t="n">
-        <v>292.1604166971856</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K15" t="n">
-        <v>491.753147485553</v>
+        <v>534.6729529971346</v>
       </c>
       <c r="L15" t="n">
-        <v>849.3725519700914</v>
+        <v>849.3725519700936</v>
       </c>
       <c r="M15" t="n">
-        <v>1235.96900872266</v>
+        <v>1235.969008722662</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.206168247558</v>
+        <v>1647.206168247559</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.188032313728</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P15" t="n">
-        <v>2265.956619575951</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.004726840545</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.1987204845209</v>
+        <v>702.1622297786066</v>
       </c>
       <c r="C16" t="n">
-        <v>541.1987204845209</v>
+        <v>689.2372293736569</v>
       </c>
       <c r="D16" t="n">
-        <v>391.0820810721851</v>
+        <v>539.1205899613211</v>
       </c>
       <c r="E16" t="n">
-        <v>243.168987489792</v>
+        <v>391.207496378928</v>
       </c>
       <c r="F16" t="n">
-        <v>96.27903999188166</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="G16" t="n">
-        <v>96.27903999188166</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J16" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238318</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768326</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138205</v>
+        <v>907.2620358138198</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q16" t="n">
-        <v>1758.019821576725</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.978465416879</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="S16" t="n">
-        <v>1463.722566438892</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="T16" t="n">
-        <v>1461.046485393269</v>
+        <v>1535.377928651068</v>
       </c>
       <c r="U16" t="n">
-        <v>1461.046485393269</v>
+        <v>1246.263888021454</v>
       </c>
       <c r="V16" t="n">
-        <v>1461.046485393269</v>
+        <v>991.5793998155672</v>
       </c>
       <c r="W16" t="n">
-        <v>1171.629315356308</v>
+        <v>702.1622297786066</v>
       </c>
       <c r="X16" t="n">
-        <v>943.6397644582906</v>
+        <v>702.1622297786066</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.8471853147605</v>
+        <v>702.1622297786066</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129768</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6719381947546</v>
+        <v>873.6719381947552</v>
       </c>
       <c r="G17" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453026</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I17" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1691212138977</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K17" t="n">
-        <v>844.9567154386642</v>
+        <v>691.4584060135637</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.841713611666</v>
+        <v>1485.343404186565</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.798284815007</v>
+        <v>2385.299975389905</v>
       </c>
       <c r="N17" t="n">
-        <v>3438.685096670232</v>
+        <v>3285.18678724513</v>
       </c>
       <c r="O17" t="n">
-        <v>4243.235057488778</v>
+        <v>3712.744568613557</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.644731128901</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q17" t="n">
-        <v>4773.595889187475</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044467</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700896</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430782</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169702</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.27415119389</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G18" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H18" t="n">
         <v>113.4711228862671</v>
       </c>
       <c r="I18" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3302917101809</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K18" t="n">
-        <v>628.7436071410011</v>
+        <v>366.9230224985479</v>
       </c>
       <c r="L18" t="n">
-        <v>1057.349066828582</v>
+        <v>681.6226214715068</v>
       </c>
       <c r="M18" t="n">
-        <v>1443.945523581151</v>
+        <v>1068.219078224075</v>
       </c>
       <c r="N18" t="n">
-        <v>1855.182683106049</v>
+        <v>1479.456237748972</v>
       </c>
       <c r="O18" t="n">
-        <v>2209.164547172219</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P18" t="n">
-        <v>2473.933134434442</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.004726840545</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>361.148804943781</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="C19" t="n">
-        <v>361.148804943781</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="D19" t="n">
-        <v>211.0321655314453</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="E19" t="n">
-        <v>211.0321655314453</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="F19" t="n">
-        <v>96.27903999188166</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27903999188166</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27903999188166</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="I19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J19" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K19" t="n">
         <v>307.8675422238315</v>
       </c>
       <c r="L19" t="n">
-        <v>594.5774814768324</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M19" t="n">
-        <v>907.2620358138201</v>
+        <v>907.2620358138199</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P19" t="n">
         <v>1697.221745862616</v>
       </c>
       <c r="Q19" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.019821576724</v>
+        <v>1658.978465416877</v>
       </c>
       <c r="S19" t="n">
-        <v>1758.019821576724</v>
+        <v>1483.612323601711</v>
       </c>
       <c r="T19" t="n">
-        <v>1535.377928651069</v>
+        <v>1260.970430676056</v>
       </c>
       <c r="U19" t="n">
-        <v>1246.263888021455</v>
+        <v>971.8563900464417</v>
       </c>
       <c r="V19" t="n">
-        <v>991.5793998155683</v>
+        <v>717.1719018405548</v>
       </c>
       <c r="W19" t="n">
-        <v>991.5793998155683</v>
+        <v>427.7547318035942</v>
       </c>
       <c r="X19" t="n">
-        <v>763.5898489175509</v>
+        <v>199.7651809055769</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.7972697740207</v>
+        <v>199.7651809055769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.674311129768</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947544</v>
+        <v>873.6719381947553</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1428052453016</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I20" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1691212138977</v>
+        <v>247.1691212138975</v>
       </c>
       <c r="K20" t="n">
-        <v>524.0527569932112</v>
+        <v>844.9567154386639</v>
       </c>
       <c r="L20" t="n">
-        <v>1317.937755166213</v>
+        <v>1638.841713611665</v>
       </c>
       <c r="M20" t="n">
-        <v>2217.894326369554</v>
+        <v>2538.798284815005</v>
       </c>
       <c r="N20" t="n">
-        <v>3117.781138224779</v>
+        <v>3438.68509667023</v>
       </c>
       <c r="O20" t="n">
-        <v>3922.331099043325</v>
+        <v>4243.235057488776</v>
       </c>
       <c r="P20" t="n">
-        <v>4571.321493773215</v>
+        <v>4583.100002263851</v>
       </c>
       <c r="Q20" t="n">
-        <v>4771.27265183179</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.647896700896</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.27415119389</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="21">
@@ -5820,34 +5820,34 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G21" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H21" t="n">
         <v>113.4711228862671</v>
       </c>
       <c r="I21" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J21" t="n">
-        <v>292.1604166971856</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K21" t="n">
-        <v>491.753147485553</v>
+        <v>491.7531474855526</v>
       </c>
       <c r="L21" t="n">
-        <v>849.3725519700916</v>
+        <v>806.4527464585116</v>
       </c>
       <c r="M21" t="n">
-        <v>1235.969008722661</v>
+        <v>1193.04920321108</v>
       </c>
       <c r="N21" t="n">
-        <v>1647.206168247558</v>
+        <v>1647.206168247559</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.188032313728</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P21" t="n">
-        <v>2265.956619575951</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.004726840545</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>482.5968985201191</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="C22" t="n">
-        <v>313.6607155922122</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="D22" t="n">
-        <v>313.6607155922122</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E22" t="n">
-        <v>244.3175488810177</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F22" t="n">
-        <v>244.3175488810177</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G22" t="n">
-        <v>244.3175488810177</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J22" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768326</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M22" t="n">
-        <v>907.2620358138203</v>
+        <v>907.2620358138197</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862615</v>
       </c>
       <c r="Q22" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.978465416879</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="S22" t="n">
-        <v>1658.978465416879</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.336572491224</v>
+        <v>1535.377928651068</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.336572491224</v>
+        <v>1246.263888021454</v>
       </c>
       <c r="V22" t="n">
-        <v>1181.652084285337</v>
+        <v>991.5793998155672</v>
       </c>
       <c r="W22" t="n">
-        <v>892.2349142483762</v>
+        <v>702.1622297786065</v>
       </c>
       <c r="X22" t="n">
-        <v>664.2453633503588</v>
+        <v>474.1726788805892</v>
       </c>
       <c r="Y22" t="n">
-        <v>664.2453633503588</v>
+        <v>277.9275048221214</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129768</v>
       </c>
       <c r="C23" t="n">
         <v>2028.711794189357</v>
@@ -5975,64 +5975,64 @@
         <v>1284.657842984363</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6719381947551</v>
+        <v>873.6719381947554</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1428052453023</v>
+        <v>458.1428052453037</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854176</v>
       </c>
       <c r="I23" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J23" t="n">
-        <v>256.6243923488466</v>
+        <v>305.9578707527231</v>
       </c>
       <c r="K23" t="n">
-        <v>854.4119865736131</v>
+        <v>903.745464977486</v>
       </c>
       <c r="L23" t="n">
-        <v>1648.296984746615</v>
+        <v>1697.630463150483</v>
       </c>
       <c r="M23" t="n">
-        <v>2548.253555949956</v>
+        <v>2597.587034353819</v>
       </c>
       <c r="N23" t="n">
-        <v>3448.140367805181</v>
+        <v>3064.500391041175</v>
       </c>
       <c r="O23" t="n">
-        <v>4252.690328623727</v>
+        <v>3869.050351859716</v>
       </c>
       <c r="P23" t="n">
-        <v>4583.10000226385</v>
+        <v>4518.040746589603</v>
       </c>
       <c r="Q23" t="n">
-        <v>4783.051160322424</v>
+        <v>4717.991904648174</v>
       </c>
       <c r="R23" t="n">
         <v>4813.951999594084</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942666</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394187</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044467</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700896</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430782</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169702</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.27415119389</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>972.0997922012563</v>
+        <v>972.0997922012569</v>
       </c>
       <c r="C24" t="n">
-        <v>797.6467629201293</v>
+        <v>797.64676292013</v>
       </c>
       <c r="D24" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588787</v>
       </c>
       <c r="E24" t="n">
-        <v>489.4748982534226</v>
+        <v>489.4748982534232</v>
       </c>
       <c r="F24" t="n">
-        <v>342.9403402803075</v>
+        <v>342.9403402803082</v>
       </c>
       <c r="G24" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762547</v>
       </c>
       <c r="H24" t="n">
-        <v>113.4711228862671</v>
+        <v>113.4711228862676</v>
       </c>
       <c r="I24" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3302917101809</v>
+        <v>292.1604166971842</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9230224985482</v>
+        <v>534.6729529971534</v>
       </c>
       <c r="L24" t="n">
-        <v>681.6226214715075</v>
+        <v>849.3725519701094</v>
       </c>
       <c r="M24" t="n">
-        <v>1068.219078224076</v>
+        <v>1235.969008722675</v>
       </c>
       <c r="N24" t="n">
-        <v>1479.456237748974</v>
+        <v>1647.206168247568</v>
       </c>
       <c r="O24" t="n">
-        <v>1833.438101815144</v>
+        <v>2001.188032313735</v>
       </c>
       <c r="P24" t="n">
-        <v>2265.956619575951</v>
+        <v>2265.956619575955</v>
       </c>
       <c r="Q24" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="R24" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="S24" t="n">
-        <v>2467.028205012516</v>
+        <v>2467.028205012517</v>
       </c>
       <c r="T24" t="n">
-        <v>2273.40031546712</v>
+        <v>2273.400315467121</v>
       </c>
       <c r="U24" t="n">
-        <v>2045.316393151755</v>
+        <v>2045.316393151756</v>
       </c>
       <c r="V24" t="n">
         <v>1810.164284920013</v>
       </c>
       <c r="W24" t="n">
-        <v>1555.926928191811</v>
+        <v>1555.926928191812</v>
       </c>
       <c r="X24" t="n">
-        <v>1348.075427986278</v>
+        <v>1348.075427986279</v>
       </c>
       <c r="Y24" t="n">
-        <v>1140.315129221324</v>
+        <v>1140.315129221325</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.1911536086578</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="C25" t="n">
-        <v>710.2549706807508</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1383312684151</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="E25" t="n">
-        <v>412.225237686022</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="F25" t="n">
-        <v>412.225237686022</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="G25" t="n">
-        <v>244.3175488810177</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="H25" t="n">
         <v>96.27903999188166</v>
@@ -6145,52 +6145,52 @@
         <v>96.27903999188166</v>
       </c>
       <c r="J25" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096023</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238296</v>
       </c>
       <c r="L25" t="n">
-        <v>594.5774814768325</v>
+        <v>594.5774814768286</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138204</v>
+        <v>907.2620358138144</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.946266754863</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214374</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862605</v>
       </c>
       <c r="Q25" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576712</v>
       </c>
       <c r="R25" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576712</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.763922598738</v>
+        <v>1600.918761831546</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.122029673083</v>
+        <v>1378.276868905891</v>
       </c>
       <c r="U25" t="n">
-        <v>1281.632197582428</v>
+        <v>1089.162828276277</v>
       </c>
       <c r="V25" t="n">
-        <v>1281.632197582428</v>
+        <v>834.4783400703898</v>
       </c>
       <c r="W25" t="n">
-        <v>1281.632197582428</v>
+        <v>545.0611700334292</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.632197582428</v>
+        <v>317.0716191354118</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.839618438898</v>
+        <v>96.27903999188167</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.3941514382104</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C28" t="n">
-        <v>557.3941514382104</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D28" t="n">
-        <v>557.3941514382104</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558173</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558174</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1256.449337203428</v>
+        <v>1584.686071686221</v>
       </c>
       <c r="V28" t="n">
-        <v>1256.449337203428</v>
+        <v>1330.001583480334</v>
       </c>
       <c r="W28" t="n">
-        <v>967.0321671664675</v>
+        <v>1040.584413443373</v>
       </c>
       <c r="X28" t="n">
-        <v>739.0426162684502</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.0426162684502</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,10 +6464,10 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.840519464784</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
         <v>2432.390822294613</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276363</v>
+        <v>709.4168978689406</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484566</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361209</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>556.3710053537279</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6652,19 +6652,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1943.184686185111</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1943.184686185111</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.767516148151</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.777965250133</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106603</v>
+        <v>891.0653626991804</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6768,31 +6768,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6097761177759</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C34" t="n">
-        <v>801.6097761177759</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177759</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>1752.94949389836</v>
       </c>
       <c r="V34" t="n">
-        <v>1319.016497052754</v>
+        <v>1498.265005692473</v>
       </c>
       <c r="W34" t="n">
-        <v>1029.599327015793</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X34" t="n">
-        <v>801.6097761177759</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y34" t="n">
-        <v>801.6097761177759</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142067</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282341</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.9035048802821</v>
+        <v>787.580895430261</v>
       </c>
       <c r="C37" t="n">
-        <v>667.3614781777661</v>
+        <v>666.0388687277513</v>
       </c>
       <c r="D37" t="n">
-        <v>564.6389949908213</v>
+        <v>564.6389949907899</v>
       </c>
       <c r="E37" t="n">
-        <v>464.120057633819</v>
+        <v>464.120057633794</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6242663612996</v>
+        <v>364.6242663612808</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3155859614095</v>
+        <v>244.3155859613969</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4925554046582</v>
+        <v>145.4925554046519</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1346794118356</v>
+        <v>187.1346794118417</v>
       </c>
       <c r="K37" t="n">
-        <v>437.5728748772176</v>
+        <v>437.5728748772299</v>
       </c>
       <c r="L37" t="n">
-        <v>800.5836858422194</v>
+        <v>800.5836858422377</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958274</v>
+        <v>1191.191743958298</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180644</v>
+        <v>1579.051133180675</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617563</v>
+        <v>1924.8317446176</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567728</v>
+        <v>2203.890257567771</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.951566236748</v>
+        <v>2327.951566236798</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219668</v>
+        <v>2285.515265219723</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.223537271885</v>
+        <v>2141.223537271946</v>
       </c>
       <c r="T37" t="n">
-        <v>1968.173687516928</v>
+        <v>1966.851078066869</v>
       </c>
       <c r="U37" t="n">
-        <v>1726.464976867962</v>
+        <v>1725.14236741791</v>
       </c>
       <c r="V37" t="n">
-        <v>1519.174644887466</v>
+        <v>1517.85203543742</v>
       </c>
       <c r="W37" t="n">
-        <v>1277.151631075897</v>
+        <v>1275.829021625857</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.55623640327</v>
+        <v>1095.233626953237</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.1578134851309</v>
+        <v>921.8352040351035</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,25 +7251,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7321,10 +7321,10 @@
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,19 +7351,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490194</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>121.3812008354504</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8705,10 +8705,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>9.550778924193764</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>43.35333890058467</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>115.0564249642673</v>
       </c>
       <c r="R12" t="n">
-        <v>15.16213830202236</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>127.4845029525678</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.88315645029908</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>43.35333890058789</v>
       </c>
       <c r="L15" t="n">
-        <v>43.3533389005849</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202236</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9176,16 +9176,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>267.3683470531437</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>9.550778924189942</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>115.0564249642645</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>169.4443742409966</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.16213830202238</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>9.550778924193764</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.89748332387247</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>43.3533389005853</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>43.35333890058803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>15.16213830202238</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.550778924190809</v>
+        <v>59.38257529174516</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9647,19 +9647,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>43.35333890061037</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>169.4443742409941</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.16213830202238</v>
+        <v>15.16213830202332</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5581238002446</v>
+        <v>63.79770388687804</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>58.95226387772297</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>154.4510706977271</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.2286119169542</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>102.451279504558</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T16" t="n">
-        <v>217.7661537612309</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>31.8154537387633</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.2286119169542</v>
@@ -23908,7 +23908,7 @@
         <v>146.5581238002446</v>
       </c>
       <c r="I19" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.050942598247</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3033399882067</v>
+        <v>19.69085959119173</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>77.78422760248617</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.2286119169542</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I22" t="n">
         <v>102.451279504558</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S22" t="n">
         <v>193.3033399882067</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>24.30193103421158</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5581238002447</v>
       </c>
       <c r="I25" t="n">
-        <v>102.451279504558</v>
+        <v>102.4512795045584</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.050942598247</v>
+        <v>98.05094259824757</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>37.77329084049224</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.3179664535692</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>91.56677787100878</v>
+        <v>108.0400430627568</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24892,10 +24892,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1846460852166</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>214.5414662356954</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>84.85180572133268</v>
       </c>
       <c r="V34" t="n">
-        <v>119.4340712400559</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.309383355477408</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.309383355625016</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1146244.802302164</v>
+        <v>1146244.802302169</v>
       </c>
     </row>
     <row r="14">
@@ -26314,28 +26314,28 @@
         <v>307890.6636991064</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>295843.1598964474</v>
+        <v>295843.1598964473</v>
       </c>
       <c r="F2" t="n">
-        <v>295843.1598964475</v>
+        <v>295843.1598964472</v>
       </c>
       <c r="G2" t="n">
-        <v>295843.1598964474</v>
+        <v>295843.1598964471</v>
       </c>
       <c r="H2" t="n">
-        <v>295843.1598964475</v>
+        <v>295843.1598964473</v>
       </c>
       <c r="I2" t="n">
-        <v>295843.1598964474</v>
+        <v>295843.1598964472</v>
       </c>
       <c r="J2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652377</v>
       </c>
       <c r="K2" t="n">
         <v>297811.3401652376</v>
@@ -26344,16 +26344,16 @@
         <v>297811.3401652377</v>
       </c>
       <c r="M2" t="n">
-        <v>307878.8792489057</v>
+        <v>307878.8792489072</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639703.3804282964</v>
+        <v>639703.3804282957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-3.125681924187423e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527449</v>
+        <v>257274.6877527499</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.1097376943</v>
+        <v>169415.1097376992</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756436446097</v>
+        <v>43.93756435949285</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.756514883</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="F4" t="n">
-        <v>26074.756514883</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="G4" t="n">
-        <v>26074.75651488299</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="H4" t="n">
-        <v>26074.75651488303</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="I4" t="n">
-        <v>26074.756514883</v>
+        <v>26074.75651488349</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33587.58123699947</v>
+        <v>33587.58123700155</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="F5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="G5" t="n">
         <v>94477.49060940044</v>
@@ -26488,7 +26488,7 @@
         <v>94477.49060940044</v>
       </c>
       <c r="I5" t="n">
-        <v>94477.49060940044</v>
+        <v>94477.49060940031</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100328.0537802289</v>
+        <v>100328.0537802294</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26522,46 +26522,46 @@
         <v>-548284.9804359755</v>
       </c>
       <c r="C6" t="n">
-        <v>41682.89877856887</v>
+        <v>41682.89877856898</v>
       </c>
       <c r="D6" t="n">
-        <v>41682.8987785689</v>
+        <v>41682.89877856892</v>
       </c>
       <c r="E6" t="n">
-        <v>-464412.4676561325</v>
+        <v>-464492.7843481497</v>
       </c>
       <c r="F6" t="n">
-        <v>175290.912772164</v>
+        <v>175210.596080146</v>
       </c>
       <c r="G6" t="n">
-        <v>175290.912772164</v>
+        <v>175210.5960801459</v>
       </c>
       <c r="H6" t="n">
-        <v>175290.912772164</v>
+        <v>175210.596080146</v>
       </c>
       <c r="I6" t="n">
-        <v>175290.9127721639</v>
+        <v>175210.5960801505</v>
       </c>
       <c r="J6" t="n">
-        <v>-73995.35816041093</v>
+        <v>-74062.5536506416</v>
       </c>
       <c r="K6" t="n">
-        <v>183279.329592334</v>
+        <v>183212.134102108</v>
       </c>
       <c r="L6" t="n">
-        <v>183279.329592334</v>
+        <v>183212.1341021082</v>
       </c>
       <c r="M6" t="n">
-        <v>4548.134493982972</v>
+        <v>4548.055930975735</v>
       </c>
       <c r="N6" t="n">
-        <v>173908.4018232308</v>
+        <v>173908.4018232357</v>
       </c>
       <c r="O6" t="n">
-        <v>173952.3393875954</v>
+        <v>173952.3393875952</v>
       </c>
       <c r="P6" t="n">
-        <v>173952.3393875952</v>
+        <v>173952.3393875951</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>977.3128539252474</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252474</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="H3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="I3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252402</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195545557621</v>
+        <v>0.05492195544936607</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.5691897081607</v>
+        <v>599.5691897081599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,19 +26978,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-5.791173879220889e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>112.463846668051</v>
+        <v>112.4638466680578</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3122034609652</v>
+        <v>665.3122034609648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>73.29449527163439</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>136.1053849558764</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.82756747470452</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>40.17912506125245</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>73.89245758215748</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>12.03533246204697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042796</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>71.43082782583144</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>266.3778003188672</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>58.77608938360667</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>244.7265927445299</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="C37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="D37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="E37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="F37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="G37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="H37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="I37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="J37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="K37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="L37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="M37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="N37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="O37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="P37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="R37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="S37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="T37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="U37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="V37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="W37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="X37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.920214663137</v>
+        <v>46.92021466314321</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4687589988065</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4601279832683</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L11" t="n">
-        <v>620.0092389781246</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M11" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N11" t="n">
-        <v>701.0427168161476</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O11" t="n">
-        <v>661.9747582584826</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9801408463035</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S11" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H12" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I12" t="n">
-        <v>72.37647078597352</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J12" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4327625808432</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M12" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O12" t="n">
-        <v>500.1536828951217</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P12" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R12" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04641449408887</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T12" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99919542270031</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K13" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L13" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M13" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O13" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5742409427124</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R13" t="n">
-        <v>79.24244877892249</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S13" t="n">
-        <v>30.71325804876555</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T13" t="n">
-        <v>7.530115431883051</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09612913317297525</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4687589988065</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4601279832683</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781246</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M14" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N14" t="n">
-        <v>701.0427168161476</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O14" t="n">
-        <v>661.9747582584826</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9801408463035</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H15" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597352</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808432</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N15" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951217</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R15" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408887</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T15" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99919542270031</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K16" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M16" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427124</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892249</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876555</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T16" t="n">
-        <v>7.530115431883051</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09612913317297525</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I17" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4601279832682</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781245</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M17" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N17" t="n">
-        <v>701.0427168161475</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O17" t="n">
-        <v>661.9747582584824</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9801408463034</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H18" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N18" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951216</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R18" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I19" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K19" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L19" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M19" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876554</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T19" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I20" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4601279832682</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0092389781245</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M20" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N20" t="n">
-        <v>701.0427168161475</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O20" t="n">
-        <v>661.9747582584824</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9801408463034</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H21" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J21" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M21" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N21" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1536828951216</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P21" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R21" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T21" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I22" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K22" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L22" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M22" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O22" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R22" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S22" t="n">
-        <v>30.71325804876554</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T22" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176842</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508647985</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988054</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4601279832682</v>
+        <v>333.4601279832658</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261016</v>
       </c>
       <c r="L23" t="n">
-        <v>620.0092389781245</v>
+        <v>620.00923897812</v>
       </c>
       <c r="M23" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539712</v>
       </c>
       <c r="N23" t="n">
-        <v>701.0427168161475</v>
+        <v>701.0427168161425</v>
       </c>
       <c r="O23" t="n">
-        <v>661.9747582584824</v>
+        <v>661.9747582584777</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9801408463034</v>
+        <v>564.9801408462993</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002785</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754025</v>
       </c>
       <c r="S23" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134238</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113664</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141473</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.102144629197702</v>
+        <v>2.102144629197686</v>
       </c>
       <c r="H24" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040924</v>
       </c>
       <c r="I24" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597298</v>
       </c>
       <c r="J24" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962604</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525054</v>
       </c>
       <c r="L24" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808398</v>
       </c>
       <c r="M24" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892559</v>
       </c>
       <c r="N24" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823104984</v>
       </c>
       <c r="O24" t="n">
-        <v>500.1536828951216</v>
+        <v>500.153682895118</v>
       </c>
       <c r="P24" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509162</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305679</v>
       </c>
       <c r="R24" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619406</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408858</v>
       </c>
       <c r="T24" t="n">
-        <v>8.473118044880207</v>
+        <v>8.473118044880145</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630058</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504531</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719484</v>
       </c>
       <c r="I25" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542269993</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143704</v>
       </c>
       <c r="K25" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584355</v>
       </c>
       <c r="L25" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851374</v>
       </c>
       <c r="M25" t="n">
-        <v>276.259107216935</v>
+        <v>276.259107216933</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6902831167819</v>
+        <v>269.69028311678</v>
       </c>
       <c r="O25" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955679</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888752</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427113</v>
       </c>
       <c r="R25" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892191</v>
       </c>
       <c r="S25" t="n">
-        <v>30.71325804876554</v>
+        <v>30.71325804876532</v>
       </c>
       <c r="T25" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431882995</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.09612913317297454</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.414223456582</v>
+        <v>152.4142234565817</v>
       </c>
       <c r="K11" t="n">
-        <v>401.0616410165752</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L11" t="n">
-        <v>801.9040385585878</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M11" t="n">
-        <v>909.047041619536</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N11" t="n">
-        <v>908.9765776315409</v>
+        <v>908.9765776315403</v>
       </c>
       <c r="O11" t="n">
-        <v>812.6767280995412</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P11" t="n">
-        <v>333.7471450910339</v>
+        <v>343.2979240152272</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2858573857368</v>
+        <v>201.9708667258318</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21296896127222</v>
+        <v>31.21296896127203</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>197.859976470004</v>
+        <v>71.76894112959502</v>
       </c>
       <c r="K12" t="n">
-        <v>201.6088189781489</v>
+        <v>466.0740559907272</v>
       </c>
       <c r="L12" t="n">
-        <v>317.878382800969</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M12" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O12" t="n">
-        <v>400.9107773512619</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P12" t="n">
-        <v>267.4430174365889</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.4324315803974</v>
+        <v>243.4115688088154</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.2401979976985</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4855618325542</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L13" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N13" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096094</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P13" t="n">
         <v>210.4288905537703</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.41219769101797</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>321.5108386286557</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K14" t="n">
-        <v>279.6804401811248</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L14" t="n">
-        <v>801.9040385585878</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M14" t="n">
-        <v>909.047041619536</v>
+        <v>459.5335081267029</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9765776315409</v>
+        <v>599.1141561721239</v>
       </c>
       <c r="O14" t="n">
-        <v>812.6767280995412</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P14" t="n">
-        <v>333.7471450910339</v>
+        <v>655.5458532625162</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.8540231761312</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R14" t="n">
-        <v>96.92938883425467</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>197.859976470004</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K15" t="n">
-        <v>201.6088189781489</v>
+        <v>244.9621578787365</v>
       </c>
       <c r="L15" t="n">
-        <v>361.2317217015539</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M15" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O15" t="n">
-        <v>357.5574384506772</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4430174365889</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.4324315803974</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.2401979976985</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4855618325542</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960106</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096094</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101797</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.4142234565819</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K17" t="n">
-        <v>603.8258527522894</v>
+        <v>279.6804401811244</v>
       </c>
       <c r="L17" t="n">
-        <v>801.9040385585877</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M17" t="n">
-        <v>909.047041619536</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N17" t="n">
-        <v>908.9765776315407</v>
+        <v>908.9765776315403</v>
       </c>
       <c r="O17" t="n">
-        <v>812.676728099541</v>
+        <v>431.8765468367952</v>
       </c>
       <c r="P17" t="n">
-        <v>333.7471450910338</v>
+        <v>601.1154921441772</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9708667258321</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R17" t="n">
-        <v>40.76374788546214</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.76894112959516</v>
+        <v>71.76894112959502</v>
       </c>
       <c r="K18" t="n">
-        <v>466.0740559907275</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L18" t="n">
-        <v>432.9348077652334</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M18" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O18" t="n">
-        <v>357.5574384506772</v>
+        <v>527.0018126916734</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4430174365888</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.3551438445483</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.24019799769849</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6877550096093</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.4142234565819</v>
+        <v>152.4142234565817</v>
       </c>
       <c r="K20" t="n">
-        <v>279.6804401811247</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L20" t="n">
-        <v>801.9040385585877</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M20" t="n">
-        <v>909.047041619536</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N20" t="n">
-        <v>908.9765776315407</v>
+        <v>908.9765776315403</v>
       </c>
       <c r="O20" t="n">
-        <v>812.676728099541</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P20" t="n">
-        <v>655.5458532625164</v>
+        <v>343.2979240152272</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9708667258321</v>
+        <v>201.9708667258318</v>
       </c>
       <c r="R20" t="n">
-        <v>43.11045228514467</v>
+        <v>31.21296896127203</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>197.859976470004</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K21" t="n">
-        <v>201.6088189781489</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L21" t="n">
-        <v>361.2317217015542</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M21" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3910702271691</v>
+        <v>458.7444091277566</v>
       </c>
       <c r="O21" t="n">
-        <v>357.5574384506772</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P21" t="n">
-        <v>267.4430174365888</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.4324315803974</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.24019799769849</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N22" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6877550096093</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>161.9650023807727</v>
+        <v>211.7967987483247</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8258527522894</v>
+        <v>603.8258527522858</v>
       </c>
       <c r="L23" t="n">
-        <v>801.9040385585877</v>
+        <v>801.9040385585832</v>
       </c>
       <c r="M23" t="n">
-        <v>909.047041619536</v>
+        <v>909.047041619531</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9765776315407</v>
+        <v>471.6296532195516</v>
       </c>
       <c r="O23" t="n">
-        <v>812.676728099541</v>
+        <v>812.6767280995363</v>
       </c>
       <c r="P23" t="n">
-        <v>333.7471450910338</v>
+        <v>655.5458532625123</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9708667258321</v>
+        <v>201.970866725829</v>
       </c>
       <c r="R23" t="n">
-        <v>31.2129689612722</v>
+        <v>96.92938883425285</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.76894112959516</v>
+        <v>197.8599764700026</v>
       </c>
       <c r="K24" t="n">
-        <v>201.6088189781489</v>
+        <v>244.9621578787568</v>
       </c>
       <c r="L24" t="n">
-        <v>317.878382800969</v>
+        <v>317.8783828009657</v>
       </c>
       <c r="M24" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672375</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271651</v>
       </c>
       <c r="O24" t="n">
-        <v>357.5574384506772</v>
+        <v>357.5574384506735</v>
       </c>
       <c r="P24" t="n">
-        <v>436.8873916775829</v>
+        <v>267.4430174365859</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.4324315803974</v>
+        <v>338.4324315803955</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.24019799769849</v>
+        <v>31.24019799769759</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4855618325541</v>
+        <v>182.4855618325527</v>
       </c>
       <c r="L25" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454535</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787736</v>
       </c>
       <c r="N25" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960086</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6877550096093</v>
+        <v>273.6877550096075</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537687</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127620321</v>
+        <v>92.49863127620941</v>
       </c>
       <c r="K37" t="n">
-        <v>252.9678742074566</v>
+        <v>252.9678742074627</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333351</v>
+        <v>366.6775868333413</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566208</v>
+        <v>394.553594056627</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306771</v>
+        <v>391.7771608306832</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857767</v>
+        <v>349.2733448857829</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082474</v>
+        <v>281.8772858082536</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010307</v>
+        <v>125.3144532010368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
